--- a/no_dummies_v2.xlsx
+++ b/no_dummies_v2.xlsx
@@ -512,10 +512,8 @@
       <c r="B2" t="n">
         <v>84</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C2" t="n">
+        <v>38</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,10 +658,8 @@
       <c r="B5" t="n">
         <v>80</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C5" t="n">
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -766,10 +762,8 @@
       <c r="B7" t="n">
         <v>86</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C7" t="n">
+        <v>32</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -876,10 +870,8 @@
       <c r="B9" t="n">
         <v>65</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C9" t="n">
+        <v>35</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -980,10 +972,8 @@
       <c r="B11" t="n">
         <v>75</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="C11" t="n">
+        <v>44</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1036,10 +1026,8 @@
       <c r="B12" t="n">
         <v>85</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C12" t="n">
+        <v>30</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1084,10 +1072,8 @@
       <c r="B13" t="n">
         <v>80</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C13" t="n">
+        <v>39</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1218,10 +1204,8 @@
       <c r="B16" t="n">
         <v>71</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C16" t="n">
+        <v>32</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1322,10 +1306,8 @@
       <c r="B18" t="n">
         <v>65</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C18" t="n">
+        <v>33</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1366,10 +1348,8 @@
       <c r="B19" t="n">
         <v>75</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C19" t="n">
+        <v>35</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1424,10 +1404,8 @@
       <c r="B20" t="n">
         <v>78</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="C20" t="n">
+        <v>44</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1482,10 +1460,8 @@
       <c r="B21" t="n">
         <v>77</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C21" t="n">
+        <v>37</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1592,10 +1568,8 @@
       <c r="B23" t="n">
         <v>71</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C23" t="n">
+        <v>31</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1734,10 +1708,8 @@
       <c r="B26" t="n">
         <v>64</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C26" t="n">
+        <v>39</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1838,10 +1810,8 @@
       <c r="B28" t="n">
         <v>60</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C28" t="n">
+        <v>40</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1896,10 +1866,8 @@
       <c r="B29" t="n">
         <v>67</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C29" t="n">
+        <v>38</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2004,10 +1972,8 @@
       <c r="B31" t="n">
         <v>84</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C31" t="n">
+        <v>31</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2062,10 +2028,8 @@
       <c r="B32" t="n">
         <v>71</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C32" t="n">
+        <v>32</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2106,10 +2070,8 @@
       <c r="B33" t="n">
         <v>63</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C33" t="n">
+        <v>34</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2158,10 +2120,8 @@
       <c r="B34" t="n">
         <v>68</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C34" t="n">
+        <v>33</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2270,10 +2230,8 @@
       <c r="B36" t="n">
         <v>78</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C36" t="n">
+        <v>40</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2432,10 +2390,8 @@
       <c r="B39" t="n">
         <v>63</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C39" t="n">
+        <v>31</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2490,10 +2446,8 @@
       <c r="B40" t="n">
         <v>87</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C40" t="n">
+        <v>40</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2598,10 +2552,8 @@
       <c r="B42" t="n">
         <v>72</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C42" t="n">
+        <v>37</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2648,10 +2600,8 @@
       <c r="B43" t="n">
         <v>70</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C43" t="n">
+        <v>40</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2868,10 +2818,8 @@
       <c r="B47" t="n">
         <v>68</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C47" t="n">
+        <v>36</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2918,10 +2866,8 @@
       <c r="B48" t="n">
         <v>64</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C48" t="n">
+        <v>33</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3022,10 +2968,8 @@
       <c r="B50" t="n">
         <v>73</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C50" t="n">
+        <v>34</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3122,10 +3066,8 @@
       <c r="B52" t="n">
         <v>80</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C52" t="n">
+        <v>42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3180,10 +3122,8 @@
       <c r="B53" t="n">
         <v>79</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="C53" t="n">
+        <v>45</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3238,10 +3178,8 @@
       <c r="B54" t="n">
         <v>81</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C54" t="n">
+        <v>37</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3296,10 +3234,8 @@
       <c r="B55" t="n">
         <v>80</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>33.5</t>
-        </is>
+      <c r="C55" t="n">
+        <v>33.5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3406,10 +3342,8 @@
       <c r="B57" t="n">
         <v>88</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C57" t="n">
+        <v>41</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3510,10 +3444,8 @@
       <c r="B59" t="n">
         <v>67</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C59" t="n">
+        <v>37</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3606,10 +3538,8 @@
       <c r="B61" t="n">
         <v>75</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C61" t="n">
+        <v>37.5</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3664,10 +3594,8 @@
       <c r="B62" t="n">
         <v>75</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C62" t="n">
+        <v>37.5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3722,10 +3650,8 @@
       <c r="B63" t="n">
         <v>81</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C63" t="n">
+        <v>39</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3888,10 +3814,8 @@
       <c r="B66" t="n">
         <v>84</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C66" t="n">
+        <v>42</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3942,10 +3866,8 @@
       <c r="B67" t="n">
         <v>73</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C67" t="n">
+        <v>32</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4144,10 +4066,8 @@
       <c r="B71" t="n">
         <v>60</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C71" t="n">
+        <v>34.5</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4194,10 +4114,8 @@
       <c r="B72" t="n">
         <v>69</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C72" t="n">
+        <v>40</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4356,10 +4274,8 @@
       <c r="B75" t="n">
         <v>70</v>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C75" t="n">
+        <v>36</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4730,10 +4646,8 @@
       <c r="B82" t="n">
         <v>65</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C82" t="n">
+        <v>30</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4842,10 +4756,8 @@
       <c r="B84" t="n">
         <v>70</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="C84" t="n">
+        <v>15</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4892,10 +4804,8 @@
       <c r="B85" t="n">
         <v>85</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C85" t="n">
+        <v>35</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4950,10 +4860,8 @@
       <c r="B86" t="n">
         <v>72</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="C86" t="n">
+        <v>18</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5008,10 +4916,8 @@
       <c r="B87" t="n">
         <v>65</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C87" t="n">
+        <v>38</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5158,10 +5064,8 @@
       <c r="B90" t="n">
         <v>62</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C90" t="n">
+        <v>28</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5470,10 +5374,8 @@
       <c r="B96" t="n">
         <v>60</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C96" t="n">
+        <v>34</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5520,10 +5422,8 @@
       <c r="B97" t="n">
         <v>70</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C97" t="n">
+        <v>37</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5578,10 +5478,8 @@
       <c r="B98" t="n">
         <v>66</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C98" t="n">
+        <v>32</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5736,10 +5634,8 @@
       <c r="B101" t="n">
         <v>86</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C101" t="n">
+        <v>43</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5902,10 +5798,8 @@
       <c r="B104" t="n">
         <v>68</v>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C104" t="n">
+        <v>30</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6014,10 +5908,8 @@
       <c r="B106" t="n">
         <v>85</v>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C106" t="n">
+        <v>40</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6118,10 +6010,8 @@
       <c r="B108" t="n">
         <v>75</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C108" t="n">
+        <v>35</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6390,10 +6280,8 @@
       <c r="B113" t="n">
         <v>72</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>30.3</t>
-        </is>
+      <c r="C113" t="n">
+        <v>30.3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6494,10 +6382,8 @@
       <c r="B115" t="n">
         <v>75</v>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C115" t="n">
+        <v>32</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -6606,10 +6492,8 @@
       <c r="B117" t="n">
         <v>65</v>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C117" t="n">
+        <v>42</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -6664,10 +6548,8 @@
       <c r="B118" t="n">
         <v>62</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C118" t="n">
+        <v>28</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -6830,10 +6712,8 @@
       <c r="B121" t="n">
         <v>68</v>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C121" t="n">
+        <v>35</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -6888,10 +6768,8 @@
       <c r="B122" t="n">
         <v>62</v>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C122" t="n">
+        <v>33</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6992,10 +6870,8 @@
       <c r="B124" t="n">
         <v>62</v>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C124" t="n">
+        <v>37</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7104,10 +6980,8 @@
       <c r="B126" t="n">
         <v>81</v>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C126" t="n">
+        <v>36</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7262,10 +7136,8 @@
       <c r="B129" t="n">
         <v>86</v>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C129" t="n">
+        <v>41</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7320,10 +7192,8 @@
       <c r="B130" t="n">
         <v>70</v>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="C130" t="n">
+        <v>55</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7378,10 +7248,8 @@
       <c r="B131" t="n">
         <v>57</v>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C131" t="n">
+        <v>33</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7542,10 +7410,8 @@
       <c r="B134" t="n">
         <v>63</v>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C134" t="n">
+        <v>30</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7706,10 +7572,8 @@
       <c r="B137" t="n">
         <v>80</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C137" t="n">
+        <v>37</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -7764,10 +7628,8 @@
       <c r="B138" t="n">
         <v>85</v>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C138" t="n">
+        <v>37</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -7984,10 +7846,8 @@
       <c r="B142" t="n">
         <v>84</v>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C142" t="n">
+        <v>37</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8042,10 +7902,8 @@
       <c r="B143" t="n">
         <v>71</v>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C143" t="n">
+        <v>36</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8142,10 +8000,8 @@
       <c r="B145" t="n">
         <v>69</v>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C145" t="n">
+        <v>38.5</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8200,10 +8056,8 @@
       <c r="B146" t="n">
         <v>67</v>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C146" t="n">
+        <v>30</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8258,10 +8112,8 @@
       <c r="B147" t="n">
         <v>61</v>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C147" t="n">
+        <v>35.5</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8316,10 +8168,8 @@
       <c r="B148" t="n">
         <v>53</v>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C148" t="n">
+        <v>32</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -8374,10 +8224,8 @@
       <c r="B149" t="n">
         <v>59</v>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C149" t="n">
+        <v>30</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -8432,10 +8280,8 @@
       <c r="B150" t="n">
         <v>77</v>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C150" t="n">
+        <v>38</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -8486,10 +8332,8 @@
       <c r="B151" t="n">
         <v>72</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C151" t="n">
+        <v>36</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -8540,10 +8384,8 @@
       <c r="B152" t="n">
         <v>70</v>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C152" t="n">
+        <v>38</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -8694,10 +8536,8 @@
       <c r="B155" t="n">
         <v>78</v>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C155" t="n">
+        <v>34</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -8752,10 +8592,8 @@
       <c r="B156" t="n">
         <v>78</v>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C156" t="n">
+        <v>37</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -8856,10 +8694,8 @@
       <c r="B158" t="n">
         <v>66</v>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C158" t="n">
+        <v>32.5</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -8968,10 +8804,8 @@
       <c r="B160" t="n">
         <v>78</v>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C160" t="n">
+        <v>34</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9026,10 +8860,8 @@
       <c r="B161" t="n">
         <v>65</v>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C161" t="n">
+        <v>32.5</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9084,10 +8916,8 @@
       <c r="B162" t="n">
         <v>76</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C162" t="n">
+        <v>30</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9250,10 +9080,8 @@
       <c r="B165" t="n">
         <v>76</v>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C165" t="n">
+        <v>34</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9300,10 +9128,8 @@
       <c r="B166" t="n">
         <v>72</v>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C166" t="n">
+        <v>34</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -9404,10 +9230,8 @@
       <c r="B168" t="n">
         <v>83</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C168" t="n">
+        <v>40</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -9566,10 +9390,8 @@
       <c r="B171" t="n">
         <v>75</v>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>33.5</t>
-        </is>
+      <c r="C171" t="n">
+        <v>33.5</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -9724,10 +9546,8 @@
       <c r="B174" t="n">
         <v>70</v>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C174" t="n">
+        <v>36</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -9890,10 +9710,8 @@
       <c r="B177" t="n">
         <v>73</v>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C177" t="n">
+        <v>34</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10164,10 +9982,8 @@
       <c r="B182" t="n">
         <v>61</v>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C182" t="n">
+        <v>35</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10222,10 +10038,8 @@
       <c r="B183" t="n">
         <v>64</v>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C183" t="n">
+        <v>37</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -10336,10 +10150,8 @@
       <c r="B185" t="n">
         <v>70</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C185" t="n">
+        <v>36</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -10394,10 +10206,8 @@
       <c r="B186" t="n">
         <v>64</v>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C186" t="n">
+        <v>37</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -10560,10 +10370,8 @@
       <c r="B189" t="n">
         <v>59</v>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C189" t="n">
+        <v>34</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -10618,10 +10426,8 @@
       <c r="B190" t="n">
         <v>69</v>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C190" t="n">
+        <v>40</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -10730,10 +10536,8 @@
       <c r="B192" t="n">
         <v>60</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C192" t="n">
+        <v>32</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -10786,10 +10590,8 @@
       <c r="B193" t="n">
         <v>66</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C193" t="n">
+        <v>36</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11054,10 +10856,8 @@
       <c r="B198" t="n">
         <v>80</v>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C198" t="n">
+        <v>32</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11166,10 +10966,8 @@
       <c r="B200" t="n">
         <v>72</v>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C200" t="n">
+        <v>33</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -11218,10 +11016,8 @@
       <c r="B201" t="n">
         <v>72</v>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C201" t="n">
+        <v>31</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -11276,10 +11072,8 @@
       <c r="B202" t="n">
         <v>80</v>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C202" t="n">
+        <v>34</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -11430,10 +11224,8 @@
       <c r="B205" t="n">
         <v>73</v>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C205" t="n">
+        <v>28</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -11590,10 +11382,8 @@
       <c r="B208" t="n">
         <v>82</v>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C208" t="n">
+        <v>32</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -11702,10 +11492,8 @@
       <c r="B210" t="n">
         <v>82</v>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C210" t="n">
+        <v>32</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -11812,10 +11600,8 @@
       <c r="B212" t="n">
         <v>80</v>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C212" t="n">
+        <v>32</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -11922,10 +11708,8 @@
       <c r="B214" t="n">
         <v>75</v>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C214" t="n">
+        <v>25</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12034,10 +11818,8 @@
       <c r="B216" t="n">
         <v>68</v>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C216" t="n">
+        <v>36</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12090,10 +11872,8 @@
       <c r="B217" t="n">
         <v>81</v>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C217" t="n">
+        <v>42</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12926,10 +12706,8 @@
       <c r="B233" t="n">
         <v>65</v>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C233" t="n">
+        <v>37</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13038,10 +12816,8 @@
       <c r="B235" t="n">
         <v>66</v>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C235" t="n">
+        <v>36</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13096,10 +12872,8 @@
       <c r="B236" t="n">
         <v>58</v>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C236" t="n">
+        <v>30</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -13154,10 +12928,8 @@
       <c r="B237" t="n">
         <v>87</v>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C237" t="n">
+        <v>40</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -13212,10 +12984,8 @@
       <c r="B238" t="n">
         <v>75</v>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C238" t="n">
+        <v>37</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -13320,10 +13090,8 @@
       <c r="B240" t="n">
         <v>65</v>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C240" t="n">
+        <v>38</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -13424,10 +13192,8 @@
       <c r="B242" t="n">
         <v>75</v>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C242" t="n">
+        <v>30</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -13536,10 +13302,8 @@
       <c r="B244" t="n">
         <v>74</v>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C244" t="n">
+        <v>32</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -13594,10 +13358,8 @@
       <c r="B245" t="n">
         <v>66</v>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C245" t="n">
+        <v>35</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -13652,10 +13414,8 @@
       <c r="B246" t="n">
         <v>73</v>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>36.6</t>
-        </is>
+      <c r="C246" t="n">
+        <v>36.6</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -13912,10 +13672,8 @@
       <c r="B251" t="n">
         <v>70</v>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C251" t="n">
+        <v>35</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14014,10 +13772,8 @@
       <c r="B253" t="n">
         <v>68</v>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C253" t="n">
+        <v>34</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -14592,10 +14348,8 @@
       <c r="B264" t="n">
         <v>81</v>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C264" t="n">
+        <v>28</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -14704,10 +14458,8 @@
       <c r="B266" t="n">
         <v>82</v>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C266" t="n">
+        <v>38</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -14808,10 +14560,8 @@
       <c r="B268" t="n">
         <v>75</v>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C268" t="n">
+        <v>40</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -14972,10 +14722,8 @@
       <c r="B271" t="n">
         <v>60</v>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C271" t="n">
+        <v>30</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -15030,10 +14778,8 @@
       <c r="B272" t="n">
         <v>68</v>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C272" t="n">
+        <v>33</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -15088,10 +14834,8 @@
       <c r="B273" t="n">
         <v>63</v>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C273" t="n">
+        <v>35</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -15146,10 +14890,8 @@
       <c r="B274" t="n">
         <v>71</v>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C274" t="n">
+        <v>33</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -15450,10 +15192,8 @@
       <c r="B280" t="n">
         <v>70</v>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C280" t="n">
+        <v>36</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -15542,10 +15282,8 @@
       <c r="B282" t="n">
         <v>63</v>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C282" t="n">
+        <v>33</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -15696,10 +15434,8 @@
       <c r="B285" t="n">
         <v>70</v>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C285" t="n">
+        <v>41</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -15754,10 +15490,8 @@
       <c r="B286" t="n">
         <v>56</v>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C286" t="n">
+        <v>35</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -15812,10 +15546,8 @@
       <c r="B287" t="n">
         <v>55</v>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C287" t="n">
+        <v>27</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -16024,10 +15756,8 @@
       <c r="B291" t="n">
         <v>60</v>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C291" t="n">
+        <v>36</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -16082,10 +15812,8 @@
       <c r="B292" t="n">
         <v>46</v>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C292" t="n">
+        <v>40</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -16292,10 +16020,8 @@
       <c r="B296" t="n">
         <v>81</v>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C296" t="n">
+        <v>25</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -16446,10 +16172,8 @@
       <c r="B299" t="n">
         <v>65</v>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C299" t="n">
+        <v>33</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -16556,10 +16280,8 @@
       <c r="B301" t="n">
         <v>51</v>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C301" t="n">
+        <v>30</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -16614,10 +16336,8 @@
       <c r="B302" t="n">
         <v>65</v>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C302" t="n">
+        <v>32</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -16672,10 +16392,8 @@
       <c r="B303" t="n">
         <v>72</v>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C303" t="n">
+        <v>37</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -16724,10 +16442,8 @@
       <c r="B304" t="n">
         <v>62</v>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C304" t="n">
+        <v>37</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -16780,10 +16496,8 @@
       <c r="B305" t="n">
         <v>96</v>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="C305" t="n">
+        <v>47</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -16892,10 +16606,8 @@
       <c r="B307" t="n">
         <v>56</v>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C307" t="n">
+        <v>30</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -16950,10 +16662,8 @@
       <c r="B308" t="n">
         <v>61</v>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C308" t="n">
+        <v>37</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -17098,10 +16808,8 @@
       <c r="B311" t="n">
         <v>82</v>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C311" t="n">
+        <v>37</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -17208,10 +16916,8 @@
       <c r="B313" t="n">
         <v>86</v>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C313" t="n">
+        <v>42</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -17250,10 +16956,8 @@
       <c r="B314" t="n">
         <v>92</v>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C314" t="n">
+        <v>36</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -17608,10 +17312,8 @@
       <c r="B321" t="n">
         <v>88</v>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C321" t="n">
+        <v>42</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -17720,10 +17422,8 @@
       <c r="B323" t="n">
         <v>70</v>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C323" t="n">
+        <v>34.5</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -17934,10 +17634,8 @@
       <c r="B327" t="n">
         <v>66</v>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C327" t="n">
+        <v>39</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -18150,10 +17848,8 @@
       <c r="B331" t="n">
         <v>74</v>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C331" t="n">
+        <v>36</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -18410,10 +18106,8 @@
       <c r="B336" t="n">
         <v>90</v>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C336" t="n">
+        <v>36</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -18572,10 +18266,8 @@
       <c r="B339" t="n">
         <v>78</v>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C339" t="n">
+        <v>37</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -18630,10 +18322,8 @@
       <c r="B340" t="n">
         <v>68</v>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C340" t="n">
+        <v>36</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -18788,10 +18478,8 @@
       <c r="B343" t="n">
         <v>79</v>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C343" t="n">
+        <v>36</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -18846,11 +18534,7 @@
       <c r="B344" t="n">
         <v>68</v>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>’</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
           <t>both</t>
@@ -19048,10 +18732,8 @@
       <c r="B348" t="n">
         <v>69</v>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C348" t="n">
+        <v>40</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -19214,10 +18896,8 @@
       <c r="B351" t="n">
         <v>75</v>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C351" t="n">
+        <v>35</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -19372,10 +19052,8 @@
       <c r="B354" t="n">
         <v>51</v>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C354" t="n">
+        <v>42</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -19736,10 +19414,8 @@
       <c r="B361" t="n">
         <v>63</v>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C361" t="n">
+        <v>36</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -19794,10 +19470,8 @@
       <c r="B362" t="n">
         <v>96</v>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C362" t="n">
+        <v>42</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -19852,10 +19526,8 @@
       <c r="B363" t="n">
         <v>65</v>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C363" t="n">
+        <v>35</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -20070,10 +19742,8 @@
       <c r="B367" t="n">
         <v>60</v>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C367" t="n">
+        <v>30</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -20128,10 +19798,8 @@
       <c r="B368" t="n">
         <v>78</v>
       </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C368" t="n">
+        <v>30</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -20186,10 +19854,8 @@
       <c r="B369" t="n">
         <v>71</v>
       </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C369" t="n">
+        <v>33</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -20238,10 +19904,8 @@
       <c r="B370" t="n">
         <v>76</v>
       </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C370" t="n">
+        <v>33</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -20294,10 +19958,8 @@
       <c r="B371" t="n">
         <v>72</v>
       </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C371" t="n">
+        <v>37</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -20350,10 +20012,8 @@
       <c r="B372" t="n">
         <v>70</v>
       </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C372" t="n">
+        <v>31</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -20436,10 +20096,8 @@
       <c r="B374" t="n">
         <v>78</v>
       </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C374" t="n">
+        <v>35</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -20548,10 +20206,8 @@
       <c r="B376" t="n">
         <v>68</v>
       </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C376" t="n">
+        <v>32</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -20654,10 +20310,8 @@
       <c r="B378" t="n">
         <v>56</v>
       </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C378" t="n">
+        <v>29</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -20704,10 +20358,8 @@
       <c r="B379" t="n">
         <v>78</v>
       </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C379" t="n">
+        <v>32</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -20816,10 +20468,8 @@
       <c r="B381" t="n">
         <v>82</v>
       </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C381" t="n">
+        <v>39</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -20926,10 +20576,8 @@
       <c r="B383" t="n">
         <v>85</v>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C383" t="n">
+        <v>39</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -21022,10 +20670,8 @@
       <c r="B385" t="n">
         <v>69</v>
       </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C385" t="n">
+        <v>35</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -21134,10 +20780,8 @@
       <c r="B387" t="n">
         <v>70</v>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C387" t="n">
+        <v>40</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -21192,10 +20836,8 @@
       <c r="B388" t="n">
         <v>63</v>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>33.8..</t>
-        </is>
+      <c r="C388" t="n">
+        <v>33.8</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -21600,10 +21242,8 @@
       <c r="B396" t="n">
         <v>85</v>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C396" t="n">
+        <v>37</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -21658,10 +21298,8 @@
       <c r="B397" t="n">
         <v>65</v>
       </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C397" t="n">
+        <v>34</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -21974,10 +21612,8 @@
       <c r="B403" t="n">
         <v>75</v>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C403" t="n">
+        <v>33</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -22032,10 +21668,8 @@
       <c r="B404" t="n">
         <v>83</v>
       </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C404" t="n">
+        <v>39</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -22090,10 +21724,8 @@
       <c r="B405" t="n">
         <v>65</v>
       </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C405" t="n">
+        <v>33</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -22136,10 +21768,8 @@
       <c r="B406" t="n">
         <v>74</v>
       </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C406" t="n">
+        <v>43</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -22236,10 +21866,8 @@
       <c r="B408" t="n">
         <v>84</v>
       </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C408" t="n">
+        <v>34</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -22336,10 +21964,8 @@
       <c r="B410" t="n">
         <v>83</v>
       </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C410" t="n">
+        <v>37</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -22394,10 +22020,8 @@
       <c r="B411" t="n">
         <v>75</v>
       </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C411" t="n">
+        <v>39</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -22444,10 +22068,8 @@
       <c r="B412" t="n">
         <v>77</v>
       </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C412" t="n">
+        <v>37</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -22502,10 +22124,8 @@
       <c r="B413" t="n">
         <v>68</v>
       </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C413" t="n">
+        <v>33</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -22560,10 +22180,8 @@
       <c r="B414" t="n">
         <v>75</v>
       </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C414" t="n">
+        <v>35.5</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -22618,10 +22236,8 @@
       <c r="B415" t="n">
         <v>68</v>
       </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C415" t="n">
+        <v>31</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -22676,10 +22292,8 @@
       <c r="B416" t="n">
         <v>70</v>
       </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C416" t="n">
+        <v>28</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -22886,10 +22500,8 @@
       <c r="B420" t="n">
         <v>72</v>
       </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C420" t="n">
+        <v>36</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -23052,10 +22664,8 @@
       <c r="B423" t="n">
         <v>70</v>
       </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C423" t="n">
+        <v>35</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -23262,10 +22872,8 @@
       <c r="B427" t="n">
         <v>68</v>
       </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C427" t="n">
+        <v>33</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -23312,10 +22920,8 @@
       <c r="B428" t="n">
         <v>80</v>
       </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>33.5</t>
-        </is>
+      <c r="C428" t="n">
+        <v>33.5</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -23370,10 +22976,8 @@
       <c r="B429" t="n">
         <v>68</v>
       </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C429" t="n">
+        <v>33</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -23420,10 +23024,8 @@
       <c r="B430" t="n">
         <v>68</v>
       </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C430" t="n">
+        <v>33</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -23470,10 +23072,8 @@
       <c r="B431" t="n">
         <v>75</v>
       </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C431" t="n">
+        <v>38.5</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -23636,10 +23236,8 @@
       <c r="B434" t="n">
         <v>79</v>
       </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C434" t="n">
+        <v>38</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -23748,10 +23346,8 @@
       <c r="B436" t="n">
         <v>82</v>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C436" t="n">
+        <v>37</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -23860,10 +23456,8 @@
       <c r="B438" t="n">
         <v>71</v>
       </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C438" t="n">
+        <v>39</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -23918,10 +23512,8 @@
       <c r="B439" t="n">
         <v>62</v>
       </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C439" t="n">
+        <v>36</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -23976,10 +23568,8 @@
       <c r="B440" t="n">
         <v>77</v>
       </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C440" t="n">
+        <v>33</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -24084,10 +23674,8 @@
       <c r="B442" t="n">
         <v>66</v>
       </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C442" t="n">
+        <v>34</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -24188,10 +23776,8 @@
       <c r="B444" t="n">
         <v>60</v>
       </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C444" t="n">
+        <v>27</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -24336,10 +23922,8 @@
       <c r="B447" t="n">
         <v>80</v>
       </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C447" t="n">
+        <v>36</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -24448,10 +24032,8 @@
       <c r="B449" t="n">
         <v>68</v>
       </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C449" t="n">
+        <v>37</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -24664,10 +24246,8 @@
       <c r="B453" t="n">
         <v>77</v>
       </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C453" t="n">
+        <v>41</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -24714,10 +24294,8 @@
       <c r="B454" t="n">
         <v>70</v>
       </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C454" t="n">
+        <v>31</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -24764,10 +24342,8 @@
       <c r="B455" t="n">
         <v>72</v>
       </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>33.3</t>
-        </is>
+      <c r="C455" t="n">
+        <v>33.3</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -24818,10 +24394,8 @@
       <c r="B456" t="n">
         <v>60</v>
       </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C456" t="n">
+        <v>30</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -25076,10 +24650,8 @@
       <c r="B461" t="n">
         <v>84</v>
       </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C461" t="n">
+        <v>37</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -25134,10 +24706,8 @@
       <c r="B462" t="n">
         <v>55</v>
       </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C462" t="n">
+        <v>32.5</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -25182,10 +24752,8 @@
       <c r="B463" t="n">
         <v>69</v>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C463" t="n">
+        <v>40</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -25450,10 +25018,8 @@
       <c r="B468" t="n">
         <v>81</v>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C468" t="n">
+        <v>38.5</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -25508,10 +25074,8 @@
       <c r="B469" t="n">
         <v>88</v>
       </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>39.7</t>
-        </is>
+      <c r="C469" t="n">
+        <v>39.7</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -25612,10 +25176,8 @@
       <c r="B471" t="n">
         <v>86</v>
       </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C471" t="n">
+        <v>36</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -25878,10 +25440,8 @@
       <c r="B476" t="n">
         <v>80</v>
       </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C476" t="n">
+        <v>39</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -25990,10 +25550,8 @@
       <c r="B478" t="n">
         <v>73</v>
       </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C478" t="n">
+        <v>35</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -26048,10 +25606,8 @@
       <c r="B479" t="n">
         <v>70</v>
       </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>29.5</t>
-        </is>
+      <c r="C479" t="n">
+        <v>29.5</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -26102,10 +25658,8 @@
       <c r="B480" t="n">
         <v>83</v>
       </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C480" t="n">
+        <v>34</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -26414,10 +25968,8 @@
       <c r="B486" t="n">
         <v>69</v>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C486" t="n">
+        <v>36</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -26526,10 +26078,8 @@
       <c r="B488" t="n">
         <v>76</v>
       </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C488" t="n">
+        <v>35</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -26576,10 +26126,8 @@
       <c r="B489" t="n">
         <v>73</v>
       </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C489" t="n">
+        <v>29</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -26688,10 +26236,8 @@
       <c r="B491" t="n">
         <v>57</v>
       </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C491" t="n">
+        <v>33</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -26730,10 +26276,8 @@
       <c r="B492" t="n">
         <v>75</v>
       </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C492" t="n">
+        <v>43</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -26788,10 +26332,8 @@
       <c r="B493" t="n">
         <v>75</v>
       </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C493" t="n">
+        <v>43</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -26846,10 +26388,8 @@
       <c r="B494" t="n">
         <v>78</v>
       </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C494" t="n">
+        <v>35</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -26904,10 +26444,8 @@
       <c r="B495" t="n">
         <v>85</v>
       </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C495" t="n">
+        <v>25</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -27016,10 +26554,8 @@
       <c r="B497" t="n">
         <v>54</v>
       </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C497" t="n">
+        <v>28</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -27074,10 +26610,8 @@
       <c r="B498" t="n">
         <v>70</v>
       </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C498" t="n">
+        <v>37</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -27124,10 +26658,8 @@
       <c r="B499" t="n">
         <v>69</v>
       </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C499" t="n">
+        <v>39</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -27182,10 +26714,8 @@
       <c r="B500" t="n">
         <v>61</v>
       </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C500" t="n">
+        <v>32.5</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -27394,10 +26924,8 @@
       <c r="B504" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C504" t="n">
+        <v>39</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -27448,10 +26976,8 @@
       <c r="B505" t="n">
         <v>75</v>
       </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C505" t="n">
+        <v>39</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -27714,10 +27240,8 @@
       <c r="B510" t="n">
         <v>76</v>
       </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C510" t="n">
+        <v>35.5</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -28082,10 +27606,8 @@
       <c r="B517" t="n">
         <v>64</v>
       </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C517" t="n">
+        <v>34</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -28236,10 +27758,8 @@
       <c r="B520" t="n">
         <v>76</v>
       </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C520" t="n">
+        <v>37</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -28538,10 +28058,8 @@
       <c r="B526" t="n">
         <v>72</v>
       </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C526" t="n">
+        <v>34</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -28594,10 +28112,8 @@
       <c r="B527" t="n">
         <v>72</v>
       </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C527" t="n">
+        <v>34</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -28804,10 +28320,8 @@
       <c r="B531" t="n">
         <v>77</v>
       </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C531" t="n">
+        <v>38</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -28862,10 +28376,8 @@
       <c r="B532" t="n">
         <v>60</v>
       </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C532" t="n">
+        <v>34</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -28966,10 +28478,8 @@
       <c r="B534" t="n">
         <v>83</v>
       </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C534" t="n">
+        <v>40</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -29074,10 +28584,8 @@
       <c r="B536" t="n">
         <v>80</v>
       </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C536" t="n">
+        <v>34</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -29346,10 +28854,8 @@
       <c r="B541" t="n">
         <v>86</v>
       </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C541" t="n">
+        <v>40</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -29404,11 +28910,7 @@
       <c r="B542" t="n">
         <v>90</v>
       </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
+      <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
           <t>wpu</t>
@@ -29548,10 +29050,8 @@
       <c r="B545" t="n">
         <v>74</v>
       </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C545" t="n">
+        <v>25</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -29606,11 +29106,7 @@
       <c r="B546" t="n">
         <v>70</v>
       </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
           <t>wpu</t>
@@ -29822,10 +29318,8 @@
       <c r="B550" t="n">
         <v>63</v>
       </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C550" t="n">
+        <v>32</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -29880,10 +29374,8 @@
       <c r="B551" t="n">
         <v>81</v>
       </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C551" t="n">
+        <v>34</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -29938,10 +29430,8 @@
       <c r="B552" t="n">
         <v>80</v>
       </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C552" t="n">
+        <v>37</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -30046,10 +29536,8 @@
       <c r="B554" t="n">
         <v>70</v>
       </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C554" t="n">
+        <v>35</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -30154,10 +29642,8 @@
       <c r="B556" t="n">
         <v>64</v>
       </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C556" t="n">
+        <v>31</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -30418,10 +29904,8 @@
       <c r="B561" t="n">
         <v>63</v>
       </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C561" t="n">
+        <v>38</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -30582,10 +30066,8 @@
       <c r="B564" t="n">
         <v>70</v>
       </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C564" t="n">
+        <v>37</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -30694,10 +30176,8 @@
       <c r="B566" t="n">
         <v>72</v>
       </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C566" t="n">
+        <v>36</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -30798,10 +30278,8 @@
       <c r="B568" t="n">
         <v>71</v>
       </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C568" t="n">
+        <v>40</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -30850,10 +30328,8 @@
       <c r="B569" t="n">
         <v>69</v>
       </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C569" t="n">
+        <v>35</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -30908,10 +30384,8 @@
       <c r="B570" t="n">
         <v>65</v>
       </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C570" t="n">
+        <v>30</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -30966,10 +30440,8 @@
       <c r="B571" t="n">
         <v>56</v>
       </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C571" t="n">
+        <v>31</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -31072,10 +30544,8 @@
       <c r="B573" t="n">
         <v>67</v>
       </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C573" t="n">
+        <v>40</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -31122,10 +30592,8 @@
       <c r="B574" t="n">
         <v>63</v>
       </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C574" t="n">
+        <v>40</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -31180,10 +30648,8 @@
       <c r="B575" t="n">
         <v>62</v>
       </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C575" t="n">
+        <v>36</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -31284,10 +30750,8 @@
       <c r="B577" t="n">
         <v>93</v>
       </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C577" t="n">
+        <v>41</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -31392,10 +30856,8 @@
       <c r="B579" t="n">
         <v>68</v>
       </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C579" t="n">
+        <v>33</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -31594,10 +31056,8 @@
       <c r="B583" t="n">
         <v>59</v>
       </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C583" t="n">
+        <v>35</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -31702,10 +31162,8 @@
       <c r="B585" t="n">
         <v>65</v>
       </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C585" t="n">
+        <v>34</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -31750,10 +31208,8 @@
       <c r="B586" t="n">
         <v>67</v>
       </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C586" t="n">
+        <v>34</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -31860,10 +31316,8 @@
       <c r="B588" t="n">
         <v>52</v>
       </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C588" t="n">
+        <v>35</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -31958,10 +31412,8 @@
       <c r="B590" t="n">
         <v>84</v>
       </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C590" t="n">
+        <v>41</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -32364,10 +31816,8 @@
       <c r="B598" t="n">
         <v>74</v>
       </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C598" t="n">
+        <v>35</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -32474,10 +31924,8 @@
       <c r="B600" t="n">
         <v>63</v>
       </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C600" t="n">
+        <v>35</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -32624,10 +32072,8 @@
       <c r="B603" t="n">
         <v>72</v>
       </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C603" t="n">
+        <v>38</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -32726,10 +32172,8 @@
       <c r="B605" t="n">
         <v>59</v>
       </c>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="C605" t="n">
+        <v>15</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -32932,10 +32376,8 @@
       <c r="B609" t="n">
         <v>72</v>
       </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C609" t="n">
+        <v>33</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -33374,10 +32816,8 @@
       <c r="B618" t="n">
         <v>75</v>
       </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C618" t="n">
+        <v>33</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -33428,10 +32868,8 @@
       <c r="B619" t="n">
         <v>70</v>
       </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C619" t="n">
+        <v>28</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -33586,10 +33024,8 @@
       <c r="B622" t="n">
         <v>73</v>
       </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C622" t="n">
+        <v>37</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -33748,10 +33184,8 @@
       <c r="B625" t="n">
         <v>65</v>
       </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C625" t="n">
+        <v>42</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -33802,10 +33236,8 @@
       <c r="B626" t="n">
         <v>61</v>
       </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C626" t="n">
+        <v>38.5</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -33846,10 +33278,8 @@
       <c r="B627" t="n">
         <v>73</v>
       </c>
-      <c r="C627" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C627" t="n">
+        <v>28</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -33904,10 +33334,8 @@
       <c r="B628" t="n">
         <v>67</v>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C628" t="n">
+        <v>35</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -33962,10 +33390,8 @@
       <c r="B629" t="n">
         <v>73</v>
       </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C629" t="n">
+        <v>37</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -34020,10 +33446,8 @@
       <c r="B630" t="n">
         <v>75</v>
       </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C630" t="n">
+        <v>33</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -34128,10 +33552,8 @@
       <c r="B632" t="n">
         <v>82</v>
       </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C632" t="n">
+        <v>39</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -34186,10 +33608,8 @@
       <c r="B633" t="n">
         <v>67.2</v>
       </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C633" t="n">
+        <v>29</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -34480,10 +33900,8 @@
       <c r="B639" t="n">
         <v>84</v>
       </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="C639" t="n">
+        <v>90</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -34744,10 +34162,8 @@
       <c r="B644" t="n">
         <v>72</v>
       </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>36-</t>
-        </is>
+      <c r="C644" t="n">
+        <v>36</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -34890,10 +34306,8 @@
       <c r="B647" t="n">
         <v>58</v>
       </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C647" t="n">
+        <v>35</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -34998,10 +34412,8 @@
       <c r="B649" t="n">
         <v>72</v>
       </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C649" t="n">
+        <v>37</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -35494,10 +34906,8 @@
       <c r="B659" t="n">
         <v>77</v>
       </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C659" t="n">
+        <v>33</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -35552,10 +34962,8 @@
       <c r="B660" t="n">
         <v>81</v>
       </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C660" t="n">
+        <v>38</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -35846,10 +35254,8 @@
       <c r="B666" t="n">
         <v>60</v>
       </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C666" t="n">
+        <v>35</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -35934,10 +35340,8 @@
       <c r="B668" t="n">
         <v>79</v>
       </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C668" t="n">
+        <v>30</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -36042,10 +35446,8 @@
       <c r="B670" t="n">
         <v>68</v>
       </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C670" t="n">
+        <v>38</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -36150,10 +35552,8 @@
       <c r="B672" t="n">
         <v>73</v>
       </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C672" t="n">
+        <v>34.5</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -36262,10 +35662,8 @@
       <c r="B674" t="n">
         <v>71</v>
       </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C674" t="n">
+        <v>41</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -36470,10 +35868,8 @@
       <c r="B678" t="n">
         <v>61</v>
       </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C678" t="n">
+        <v>38</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -36792,10 +36188,8 @@
       <c r="B685" t="n">
         <v>76</v>
       </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C685" t="n">
+        <v>30</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -36850,10 +36244,8 @@
       <c r="B686" t="n">
         <v>76</v>
       </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C686" t="n">
+        <v>37</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -36962,10 +36354,8 @@
       <c r="B688" t="n">
         <v>62</v>
       </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C688" t="n">
+        <v>32</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -37064,10 +36454,8 @@
       <c r="B690" t="n">
         <v>62</v>
       </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C690" t="n">
+        <v>31</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -37174,10 +36562,8 @@
       <c r="B692" t="n">
         <v>75.5</v>
       </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C692" t="n">
+        <v>38</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -37232,10 +36618,8 @@
       <c r="B693" t="n">
         <v>72</v>
       </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C693" t="n">
+        <v>37</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -37526,10 +36910,8 @@
       <c r="B699" t="n">
         <v>82</v>
       </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C699" t="n">
+        <v>33</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -37568,10 +36950,8 @@
       <c r="B700" t="n">
         <v>66</v>
       </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C700" t="n">
+        <v>36</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -37626,10 +37006,8 @@
       <c r="B701" t="n">
         <v>87</v>
       </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C701" t="n">
+        <v>32</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -37792,10 +37170,8 @@
       <c r="B704" t="n">
         <v>73</v>
       </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C704" t="n">
+        <v>38.5</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -38142,10 +37518,8 @@
       <c r="B711" t="n">
         <v>70</v>
       </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>33.7</t>
-        </is>
+      <c r="C711" t="n">
+        <v>33.7</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -38198,10 +37572,8 @@
       <c r="B712" t="n">
         <v>60</v>
       </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C712" t="n">
+        <v>30</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -38360,10 +37732,8 @@
       <c r="B715" t="n">
         <v>71</v>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C715" t="n">
+        <v>34</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -38402,10 +37772,8 @@
       <c r="B716" t="n">
         <v>72</v>
       </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C716" t="n">
+        <v>40</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -38450,10 +37818,8 @@
       <c r="B717" t="n">
         <v>80</v>
       </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C717" t="n">
+        <v>37</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -38554,10 +37920,8 @@
       <c r="B719" t="n">
         <v>70</v>
       </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C719" t="n">
+        <v>34</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -38978,10 +38342,8 @@
       <c r="B727" t="n">
         <v>74</v>
       </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C727" t="n">
+        <v>30</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -39090,10 +38452,8 @@
       <c r="B729" t="n">
         <v>73</v>
       </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
+      <c r="C729" t="n">
+        <v>40.5</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -39244,10 +38604,8 @@
       <c r="B732" t="n">
         <v>78</v>
       </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C732" t="n">
+        <v>34</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -39616,10 +38974,8 @@
       <c r="B739" t="n">
         <v>85</v>
       </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C739" t="n">
+        <v>37.5</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -39674,10 +39030,8 @@
       <c r="B740" t="n">
         <v>63</v>
       </c>
-      <c r="C740" t="inlineStr">
-        <is>
-          <t>44.5</t>
-        </is>
+      <c r="C740" t="n">
+        <v>44.5</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -39732,10 +39086,8 @@
       <c r="B741" t="n">
         <v>77</v>
       </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C741" t="n">
+        <v>36</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -39790,10 +39142,8 @@
       <c r="B742" t="n">
         <v>60</v>
       </c>
-      <c r="C742" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C742" t="n">
+        <v>37</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -40026,10 +39376,8 @@
       <c r="B747" t="n">
         <v>66</v>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C747" t="n">
+        <v>30</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -40084,10 +39432,8 @@
       <c r="B748" t="n">
         <v>57</v>
       </c>
-      <c r="C748" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C748" t="n">
+        <v>33</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -40142,10 +39488,8 @@
       <c r="B749" t="n">
         <v>78</v>
       </c>
-      <c r="C749" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C749" t="n">
+        <v>40</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -40200,10 +39544,8 @@
       <c r="B750" t="n">
         <v>72</v>
       </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C750" t="n">
+        <v>35</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -40296,10 +39638,8 @@
       <c r="B752" t="n">
         <v>78</v>
       </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C752" t="n">
+        <v>40</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -40354,10 +39694,8 @@
       <c r="B753" t="n">
         <v>65</v>
       </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C753" t="n">
+        <v>34</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -40400,10 +39738,8 @@
       <c r="B754" t="n">
         <v>77</v>
       </c>
-      <c r="C754" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C754" t="n">
+        <v>37.5</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -40554,10 +39890,8 @@
       <c r="B757" t="n">
         <v>61</v>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C757" t="n">
+        <v>30</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -40640,10 +39974,8 @@
       <c r="B759" t="n">
         <v>68</v>
       </c>
-      <c r="C759" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C759" t="n">
+        <v>33</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -40956,10 +40288,8 @@
       <c r="B765" t="n">
         <v>94</v>
       </c>
-      <c r="C765" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C765" t="n">
+        <v>35</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -41098,10 +40428,8 @@
       <c r="B768" t="n">
         <v>63</v>
       </c>
-      <c r="C768" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C768" t="n">
+        <v>35</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -41156,10 +40484,8 @@
       <c r="B769" t="n">
         <v>76</v>
       </c>
-      <c r="C769" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C769" t="n">
+        <v>36</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -41484,10 +40810,8 @@
       <c r="B775" t="n">
         <v>62</v>
       </c>
-      <c r="C775" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C775" t="n">
+        <v>34</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -41740,10 +41064,8 @@
       <c r="B780" t="n">
         <v>41</v>
       </c>
-      <c r="C780" t="inlineStr">
-        <is>
-          <t>28.1</t>
-        </is>
+      <c r="C780" t="n">
+        <v>28.1</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -41790,10 +41112,8 @@
       <c r="B781" t="n">
         <v>62</v>
       </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C781" t="n">
+        <v>34</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -41894,10 +41214,8 @@
       <c r="B783" t="n">
         <v>70</v>
       </c>
-      <c r="C783" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C783" t="n">
+        <v>27</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -41944,10 +41262,8 @@
       <c r="B784" t="n">
         <v>63</v>
       </c>
-      <c r="C784" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C784" t="n">
+        <v>25</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -42058,10 +41374,8 @@
       <c r="B786" t="n">
         <v>73</v>
       </c>
-      <c r="C786" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C786" t="n">
+        <v>36</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -42108,10 +41422,8 @@
       <c r="B787" t="n">
         <v>55</v>
       </c>
-      <c r="C787" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C787" t="n">
+        <v>39</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -42562,10 +41874,8 @@
       <c r="B796" t="n">
         <v>60</v>
       </c>
-      <c r="C796" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C796" t="n">
+        <v>36</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -42716,10 +42026,8 @@
       <c r="B799" t="n">
         <v>60</v>
       </c>
-      <c r="C799" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C799" t="n">
+        <v>31</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -42878,10 +42186,8 @@
       <c r="B802" t="n">
         <v>73</v>
       </c>
-      <c r="C802" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C802" t="n">
+        <v>36</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -43144,10 +42450,8 @@
       <c r="B807" t="n">
         <v>60</v>
       </c>
-      <c r="C807" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="C807" t="n">
+        <v>26</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -43508,10 +42812,8 @@
       <c r="B814" t="n">
         <v>70</v>
       </c>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C814" t="n">
+        <v>37</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -43610,10 +42912,8 @@
       <c r="B816" t="n">
         <v>60</v>
       </c>
-      <c r="C816" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="C816" t="n">
+        <v>53</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -43664,10 +42964,8 @@
       <c r="B817" t="n">
         <v>65</v>
       </c>
-      <c r="C817" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C817" t="n">
+        <v>30</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -43864,10 +43162,8 @@
       <c r="B821" t="n">
         <v>74</v>
       </c>
-      <c r="C821" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C821" t="n">
+        <v>31</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -44284,10 +43580,8 @@
       <c r="B829" t="n">
         <v>58</v>
       </c>
-      <c r="C829" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C829" t="n">
+        <v>20</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -44338,10 +43632,8 @@
       <c r="B830" t="n">
         <v>78</v>
       </c>
-      <c r="C830" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C830" t="n">
+        <v>37.5</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -44386,10 +43678,8 @@
       <c r="B831" t="n">
         <v>91</v>
       </c>
-      <c r="C831" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="C831" t="n">
+        <v>11</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -44532,10 +43822,8 @@
       <c r="B834" t="n">
         <v>60</v>
       </c>
-      <c r="C834" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C834" t="n">
+        <v>27</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -44586,10 +43874,8 @@
       <c r="B835" t="n">
         <v>73</v>
       </c>
-      <c r="C835" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C835" t="n">
+        <v>34.5</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -45100,10 +44386,8 @@
       <c r="B845" t="n">
         <v>71</v>
       </c>
-      <c r="C845" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C845" t="n">
+        <v>40</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -45156,10 +44440,8 @@
       <c r="B846" t="n">
         <v>71</v>
       </c>
-      <c r="C846" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C846" t="n">
+        <v>40</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -45246,10 +44528,8 @@
       <c r="B848" t="n">
         <v>64</v>
       </c>
-      <c r="C848" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C848" t="n">
+        <v>32</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -45458,10 +44738,8 @@
       <c r="B852" t="n">
         <v>57</v>
       </c>
-      <c r="C852" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C852" t="n">
+        <v>30</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -45570,10 +44848,8 @@
       <c r="B854" t="n">
         <v>71.5</v>
       </c>
-      <c r="C854" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C854" t="n">
+        <v>32</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -45800,10 +45076,8 @@
       <c r="B859" t="n">
         <v>79</v>
       </c>
-      <c r="C859" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C859" t="n">
+        <v>38</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -45858,10 +45132,8 @@
       <c r="B860" t="n">
         <v>76</v>
       </c>
-      <c r="C860" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C860" t="n">
+        <v>29</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -45916,10 +45188,8 @@
       <c r="B861" t="n">
         <v>72</v>
       </c>
-      <c r="C861" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C861" t="n">
+        <v>32</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -45974,10 +45244,8 @@
       <c r="B862" t="n">
         <v>68</v>
       </c>
-      <c r="C862" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C862" t="n">
+        <v>38</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -46084,10 +45352,8 @@
       <c r="B864" t="n">
         <v>65</v>
       </c>
-      <c r="C864" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C864" t="n">
+        <v>34</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -46142,10 +45408,8 @@
       <c r="B865" t="n">
         <v>58</v>
       </c>
-      <c r="C865" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C865" t="n">
+        <v>32</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -46344,10 +45608,8 @@
       <c r="B869" t="n">
         <v>72</v>
       </c>
-      <c r="C869" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C869" t="n">
+        <v>32</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -46402,10 +45664,8 @@
       <c r="B870" t="n">
         <v>74</v>
       </c>
-      <c r="C870" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C870" t="n">
+        <v>34</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -46552,10 +45812,8 @@
       <c r="B873" t="n">
         <v>70</v>
       </c>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C873" t="n">
+        <v>32</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -46610,10 +45868,8 @@
       <c r="B874" t="n">
         <v>73.5</v>
       </c>
-      <c r="C874" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C874" t="n">
+        <v>35.5</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -46768,10 +46024,8 @@
       <c r="B877" t="n">
         <v>65</v>
       </c>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C877" t="n">
+        <v>37</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -46822,10 +46076,8 @@
       <c r="B878" t="n">
         <v>71</v>
       </c>
-      <c r="C878" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C878" t="n">
+        <v>27</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -46976,10 +46228,8 @@
       <c r="B881" t="n">
         <v>75</v>
       </c>
-      <c r="C881" t="inlineStr">
-        <is>
-          <t>41.5</t>
-        </is>
+      <c r="C881" t="n">
+        <v>41.5</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -47030,10 +46280,8 @@
       <c r="B882" t="n">
         <v>77</v>
       </c>
-      <c r="C882" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C882" t="n">
+        <v>32</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -47088,10 +46336,8 @@
       <c r="B883" t="n">
         <v>60</v>
       </c>
-      <c r="C883" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C883" t="n">
+        <v>38</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -47228,10 +46474,8 @@
       <c r="B886" t="n">
         <v>83</v>
       </c>
-      <c r="C886" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C886" t="n">
+        <v>37</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -47286,10 +46530,8 @@
       <c r="B887" t="n">
         <v>70</v>
       </c>
-      <c r="C887" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C887" t="n">
+        <v>25</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -47530,10 +46772,8 @@
       <c r="B892" t="n">
         <v>88</v>
       </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C892" t="n">
+        <v>34</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -47586,10 +46826,8 @@
       <c r="B893" t="n">
         <v>67</v>
       </c>
-      <c r="C893" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C893" t="n">
+        <v>32</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -48150,10 +47388,8 @@
       <c r="B904" t="n">
         <v>60</v>
       </c>
-      <c r="C904" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C904" t="n">
+        <v>20</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -48304,10 +47540,8 @@
       <c r="B907" t="n">
         <v>65</v>
       </c>
-      <c r="C907" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C907" t="n">
+        <v>35</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -48362,10 +47596,8 @@
       <c r="B908" t="n">
         <v>70</v>
       </c>
-      <c r="C908" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C908" t="n">
+        <v>34</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -48518,10 +47750,8 @@
       <c r="B911" t="n">
         <v>82</v>
       </c>
-      <c r="C911" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C911" t="n">
+        <v>40</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -48610,10 +47840,8 @@
       <c r="B913" t="n">
         <v>68</v>
       </c>
-      <c r="C913" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C913" t="n">
+        <v>30</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -48652,10 +47880,8 @@
       <c r="B914" t="n">
         <v>84</v>
       </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C914" t="n">
+        <v>36</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -49028,10 +48254,8 @@
       <c r="B921" t="n">
         <v>85</v>
       </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C921" t="n">
+        <v>39</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -49132,10 +48356,8 @@
       <c r="B923" t="n">
         <v>90</v>
       </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C923" t="n">
+        <v>30</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -49294,10 +48516,8 @@
       <c r="B926" t="n">
         <v>62</v>
       </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C926" t="n">
+        <v>31</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -49540,10 +48760,8 @@
       <c r="B931" t="n">
         <v>62</v>
       </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C931" t="n">
+        <v>34</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -49644,10 +48862,8 @@
       <c r="B933" t="n">
         <v>70</v>
       </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C933" t="n">
+        <v>20</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -49842,10 +49058,8 @@
       <c r="B937" t="n">
         <v>74.5</v>
       </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C937" t="n">
+        <v>38</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -50000,10 +49214,8 @@
       <c r="B940" t="n">
         <v>67.5</v>
       </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C940" t="n">
+        <v>36</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -50054,10 +49266,8 @@
       <c r="B941" t="n">
         <v>76</v>
       </c>
-      <c r="C941" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C941" t="n">
+        <v>35</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -50158,10 +49368,8 @@
       <c r="B943" t="n">
         <v>66</v>
       </c>
-      <c r="C943" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C943" t="n">
+        <v>33</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
